--- a/data/pre/chemicals_hq.xlsx
+++ b/data/pre/chemicals_hq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29908\Desktop\黄芪六一汤\data\pre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lulinfeng\Desktop\网络药理学\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DA01B4-816F-4B3B-904D-83D09C2A0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EB4145-C3A8-4D4D-B599-DF4E25350CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,115 +33,121 @@
     <t>(3S,8S,9S,10R,13R,14S,17R)-10,13-dimethyl-17-[(2R,5S)-5-propan-2-yloctan-2-yl]-2,3,4,7,8,9,11,12,14,15,16,17-dodecahydro-1H-cyclopenta[a]phenanthren-3-ol</t>
   </si>
   <si>
+    <t>kaempferol</t>
+  </si>
+  <si>
+    <t>isorhamnetin</t>
+  </si>
+  <si>
+    <t>Jaranol</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>formononetin</t>
+  </si>
+  <si>
+    <t>isoflavanone</t>
+  </si>
+  <si>
+    <t>chemical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COC1=C2C(=C(C(=C1)C(=O)OC)C3=C4C(=C(C=C3C(=O)OC)OC)OCO4)OCO2</t>
+  </si>
+  <si>
+    <t>CCC[C@@H](CC[C@@H](C)[C@H]1CC[C@@H]2[C@@]1(CC[C@H]3[C@H]2CC=C4[C@@]3(CC[C@@H](C4)O)C)C)C(C)C</t>
+  </si>
+  <si>
+    <t>9,10-dimethoxypterocarpan-3-O-β-D-glucoside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hederagenin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C[C@]12CC[C@@H]([C@@]([C@@H]1CC[C@@]3([C@@H]2CC=C4[C@]3(CC[C@@]5([C@H]4CC(CC5)(C)C)C(=O)O)C)C)(C)CO)O</t>
+  </si>
+  <si>
+    <t>C1=CC(=CC=C1C2=C(C(=O)C3=C(C=C(C=C3O2)O)O)O)O</t>
+  </si>
+  <si>
+    <t>quercetin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1=CC(=C(C=C1C2=C(C(=O)C3=C(C=C(C=C3O2)O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>Calycosin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COC1=C(C=C(C=C1)C2=COC3=C(C2=O)C=CC(=C3)O)O</t>
+  </si>
+  <si>
+    <t>isomucronulatol-7,2'-di-O-glucosiole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COC1=C(C=CC(=C1)C2=C(C(=O)C3=C(C=C(C=C3O2)O)O)O)O</t>
+  </si>
+  <si>
+    <t>COC1=CC(=C2C(=C1)OC(=C(C2=O)OC)C3=CC=C(C=C3)O)O</t>
+  </si>
+  <si>
+    <t>Mairin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC(=C)[C@@H]1CC[C@]2([C@H]1[C@H]3CC[C@@H]4[C@]5(CC[C@@H](C([C@@H]5CC[C@]4([C@@]3(CC2)C)C)(C)C)O)C)C(=O)O</t>
+  </si>
+  <si>
+    <t>COC1=C(C=CC(=C1)CC=C)O</t>
+  </si>
+  <si>
+    <t>COC1=CC=C(C=C1)C2=COC3=C(C2=O)C=CC(=C3)O</t>
+  </si>
+  <si>
+    <t>C1C(C(=O)C2=CC=CC=C2O1)C3=CC=CC=C3</t>
+  </si>
+  <si>
+    <t>tcm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄芪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1,7-Dihydroxy-3,9-dimethoxy pterocarpene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5'-hydroxyiso-muronulatol-2',5'-di-O-glucoside</t>
-  </si>
-  <si>
-    <t>kaempferol</t>
-  </si>
-  <si>
-    <t>isorhamnetin</t>
-  </si>
-  <si>
-    <t>Jaranol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3,9-di-O-methylnissolin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3R)-3-(2-hydroxy-3,4-dimethoxyphenyl)chroman-7-ol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-O-methylisomucronulatol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(6aR,11aR)-9,10-dimethoxy-6a,11a-dihydro-6H-benzofurano[3,2-c]chromen-3-ol</t>
-  </si>
-  <si>
-    <t>(3R)-3-(2-hydroxy-3,4-dimethoxyphenyl)chroman-7-ol</t>
-  </si>
-  <si>
-    <t>FA</t>
-  </si>
-  <si>
-    <t>formononetin</t>
-  </si>
-  <si>
-    <t>7-O-methylisomucronulatol</t>
-  </si>
-  <si>
-    <t>isoflavanone</t>
-  </si>
-  <si>
-    <t>chemical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COC1=C2C(=C(C(=C1)C(=O)OC)C3=C4C(=C(C=C3C(=O)OC)OC)OCO4)OCO2</t>
-  </si>
-  <si>
-    <t>CCC[C@@H](CC[C@@H](C)[C@H]1CC[C@@H]2[C@@]1(CC[C@H]3[C@H]2CC=C4[C@@]3(CC[C@@H](C4)O)C)C)C(C)C</t>
-  </si>
-  <si>
-    <t>9,10-dimethoxypterocarpan-3-O-β-D-glucoside</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hederagenin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C[C@]12CC[C@@H]([C@@]([C@@H]1CC[C@@]3([C@@H]2CC=C4[C@]3(CC[C@@]5([C@H]4CC(CC5)(C)C)C(=O)O)C)C)(C)CO)O</t>
-  </si>
-  <si>
-    <t>C1=CC(=CC=C1C2=C(C(=O)C3=C(C=C(C=C3O2)O)O)O)O</t>
-  </si>
-  <si>
-    <t>quercetin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1=CC(=C(C=C1C2=C(C(=O)C3=C(C=C(C=C3O2)O)O)O)O)O</t>
-  </si>
-  <si>
-    <t>Calycosin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COC1=C(C=C(C=C1)C2=COC3=C(C2=O)C=CC(=C3)O)O</t>
-  </si>
-  <si>
-    <t>isomucronulatol-7,2'-di-O-glucosiole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COC1=C(C=CC(=C1)C2=C(C(=O)C3=C(C=C(C=C3O2)O)O)O)O</t>
-  </si>
-  <si>
-    <t>COC1=CC(=C2C(=C1)OC(=C(C2=O)OC)C3=CC=C(C=C3)O)O</t>
-  </si>
-  <si>
-    <t>Mairin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC(=C)[C@@H]1CC[C@]2([C@H]1[C@H]3CC[C@@H]4[C@]5(CC[C@@H](C([C@@H]5CC[C@]4([C@@]3(CC2)C)C)(C)C)O)C)C(=O)O</t>
-  </si>
-  <si>
-    <t>COC1=C(C=CC(=C1)CC=C)O</t>
-  </si>
-  <si>
-    <t>COC1=CC=C(C=C1)C2=COC3=C(C2=O)C=CC(=C3)O</t>
-  </si>
-  <si>
-    <t>C1C(C(=O)C2=CC=CC=C2O1)C3=CC=CC=C3</t>
-  </si>
-  <si>
-    <t>tcm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄芪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +510,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -517,217 +523,217 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
